--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\indst\PPRiFUfICaWHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PPRiFUfICaWHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5F7A10F8BFB445C6762CEA9DB4EF67DFEAAAD0D6" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7EAEE521-8F0B-4D8A-B442-6D62E589BFDB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Data" sheetId="2" r:id="rId3"/>
-    <sheet name="PPRiFUfICaWHR" sheetId="3" r:id="rId4"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="PPRiFUfICaWHR" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Source:</t>
   </si>
@@ -69,9 +59,6 @@
     <t>Model End Year</t>
   </si>
   <si>
-    <t>Pot Perc Red in Fuel Use</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -108,19 +95,18 @@
     <t>PPRiFUfICaWHR Potential Perc Reduction in Fuel Use from Increased Cogen and Waste Heat Recovery</t>
   </si>
   <si>
-    <t>use US value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>Pot Perc Red in Fuel Use (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,21 +141,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,7 +178,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -222,16 +193,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -327,23 +297,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -379,23 +332,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,26 +507,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.1328125" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,50 +531,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -649,30 +576,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820D732C-3D6B-4002-84D2-2EDF84CBD8AE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.59765625" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -680,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -688,7 +603,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -696,7 +611,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -705,7 +620,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -713,7 +628,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -723,106 +638,104 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.73046875" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="11">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10">
         <f>Data!B$7</f>
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="11">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10">
         <f>Data!B$7</f>
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10">
         <f>Data!B$7</f>
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="11">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10">
         <f>Data!B$7</f>
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="11">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10">
         <f>Data!B$7</f>
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="11">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10">
         <f>Data!B$7</f>
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <f>Data!B$7</f>
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1080,31 +993,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBC9F3D-3AE8-46DF-9DA8-0C2A5636ED2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10395F09-38C3-4146-B0C8-1B6185F6EE3F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08F6996-DF35-4F2F-AF4B-1103E2AB3DE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40887618-B659-475A-A33E-1FA372690933}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A8E819-286F-4C83-A3EB-EA0FECCE697D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{772FDAB6-C498-434C-BD79-FBD3EF0FFA45}"/>
 </file>